--- a/psych_RT_sub-00AD.xlsx
+++ b/psych_RT_sub-00AD.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Manip\Psych\psych\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDECADEC-47BF-4681-B988-9A7A918B8526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A663A9-02BF-4D6C-986E-0958A05363D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="psych_RT_sub-00AD" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -247,7 +259,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -783,6 +795,28 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{20687D4F-6FF1-40BF-A89F-BCE1DE94C758}" name="Tableau1" displayName="Tableau1" ref="A1:M62" totalsRowCount="1">
+  <autoFilter ref="A1:M61" xr:uid="{20687D4F-6FF1-40BF-A89F-BCE1DE94C758}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{87D901E4-51C9-4523-A11E-284745AADE7C}" name="Column1" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{2C49CF9A-0415-4902-8E81-CCCBE478B2E8}" name="MDDV" totalsRowFunction="average"/>
+    <tableColumn id="3" xr3:uid="{0F165383-273A-4200-9FA6-73CF76606C28}" name="MDDF" totalsRowFunction="average"/>
+    <tableColumn id="4" xr3:uid="{4B7587CC-2C45-4468-B59F-6AEB4BC70FF0}" name="MDGV" totalsRowFunction="average"/>
+    <tableColumn id="5" xr3:uid="{FDDBED57-37F7-4DF4-9DF2-4396259DA810}" name="MDGF" totalsRowFunction="average"/>
+    <tableColumn id="6" xr3:uid="{0CC83E9C-12FE-4B65-AE84-1A1455C84DFA}" name="VMDV" totalsRowFunction="average"/>
+    <tableColumn id="7" xr3:uid="{E9E14AD2-37C0-4718-8245-113ECCFC2568}" name="VMDF" totalsRowFunction="average"/>
+    <tableColumn id="8" xr3:uid="{E44819F9-567E-49B7-AF67-7EF8D417FB6C}" name="VMGV" totalsRowFunction="average"/>
+    <tableColumn id="9" xr3:uid="{8983C20D-715A-4856-853D-5A15F76BD8C7}" name="VMGF" totalsRowFunction="average"/>
+    <tableColumn id="10" xr3:uid="{C3D8ED84-5550-46B6-BBC9-A9363B5EB13B}" name="RTDV" totalsRowFunction="average"/>
+    <tableColumn id="11" xr3:uid="{5F3223EF-6E56-4642-9F48-F36063877620}" name="RTDF" totalsRowFunction="average"/>
+    <tableColumn id="12" xr3:uid="{65FBC423-2BF4-4F13-AA3A-16A7B03354BC}" name="RTGV" totalsRowFunction="average"/>
+    <tableColumn id="13" xr3:uid="{68721219-48FE-4D95-87FF-77DDBE0266D3}" name="RTGF" totalsRowFunction="average"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1081,10 +1115,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="J62" sqref="J62:M62"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -2874,43 +2910,58 @@
         <v>73</v>
       </c>
       <c r="B62">
-        <v>0.95</v>
+        <f>SUBTOTAL(101,Tableau1[MDDV])</f>
+        <v>0.95016666666666649</v>
       </c>
       <c r="C62">
-        <v>1.05</v>
+        <f>SUBTOTAL(101,Tableau1[MDDF])</f>
+        <v>1.0505</v>
       </c>
       <c r="D62">
-        <v>0.98</v>
+        <f>SUBTOTAL(101,Tableau1[MDGV])</f>
+        <v>0.9843333333333335</v>
       </c>
       <c r="E62">
-        <v>1.04</v>
+        <f>SUBTOTAL(101,Tableau1[MDGF])</f>
+        <v>1.0359999999999998</v>
       </c>
       <c r="F62">
+        <f>SUBTOTAL(101,Tableau1[VMDV])</f>
         <v>3248</v>
       </c>
       <c r="G62">
+        <f>SUBTOTAL(101,Tableau1[VMDF])</f>
         <v>2838</v>
       </c>
       <c r="H62">
+        <f>SUBTOTAL(101,Tableau1[VMGV])</f>
         <v>3666</v>
       </c>
       <c r="I62">
+        <f>SUBTOTAL(101,Tableau1[VMGF])</f>
         <v>2841</v>
       </c>
       <c r="J62">
-        <v>0.38</v>
+        <f>SUBTOTAL(101,Tableau1[RTDV])</f>
+        <v>0.38466666666666688</v>
       </c>
       <c r="K62">
-        <v>0.5</v>
+        <f>SUBTOTAL(101,Tableau1[RTDF])</f>
+        <v>0.499</v>
       </c>
       <c r="L62">
-        <v>0.37</v>
+        <f>SUBTOTAL(101,Tableau1[RTGV])</f>
+        <v>0.3715</v>
       </c>
       <c r="M62">
-        <v>0.47</v>
+        <f>SUBTOTAL(101,Tableau1[RTGF])</f>
+        <v>0.46750000000000008</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>